--- a/Share/Price list/ATALI_07_07_23.xlsx
+++ b/Share/Price list/ATALI_07_07_23.xlsx
@@ -7320,8 +7320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1926"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A106" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A47" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7339,7 +7339,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="80">
         <f ca="1">TODAY()</f>
-        <v>45114</v>
+        <v>45124</v>
       </c>
       <c r="E1" s="80"/>
     </row>
@@ -16304,7 +16304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="21" t="s">
         <v>608</v>
       </c>
